--- a/report_data.xlsx
+++ b/report_data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Desktop\CS3813_Computer_Architecture\Project\GPU_Benchmark\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69ED0C7-3F80-4363-844F-B4F1F4726C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +24,131 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+  <si>
+    <t>Processor Architecture</t>
+  </si>
+  <si>
+    <t>Total number of Processors</t>
+  </si>
+  <si>
+    <t>Number of processors used</t>
+  </si>
+  <si>
+    <t>OS Name</t>
+  </si>
+  <si>
+    <t>OS Version</t>
+  </si>
+  <si>
+    <t>OS Configuration</t>
+  </si>
+  <si>
+    <t>OS Build Type</t>
+  </si>
+  <si>
+    <t>System Manufacturer</t>
+  </si>
+  <si>
+    <t>System Model</t>
+  </si>
+  <si>
+    <t>System Type</t>
+  </si>
+  <si>
+    <t>Processor(s)</t>
+  </si>
+  <si>
+    <t>AVG CPU Max</t>
+  </si>
+  <si>
+    <t>AVG CPU Min</t>
+  </si>
+  <si>
+    <t>AMD64</t>
+  </si>
+  <si>
+    <t>Microsoft Windows 11 Home</t>
+  </si>
+  <si>
+    <t>10.0.22000 N/A Build 22000</t>
+  </si>
+  <si>
+    <t>Standalone Workstation</t>
+  </si>
+  <si>
+    <t>Multiprocessor Free</t>
+  </si>
+  <si>
+    <t>HUAWEI</t>
+  </si>
+  <si>
+    <t>MACH-WX9</t>
+  </si>
+  <si>
+    <t>x64-based PC</t>
+  </si>
+  <si>
+    <t>Intel64 Family 6 Model 142 Stepping 10 GenuineIntel ~1792 Mhz</t>
+  </si>
+  <si>
+    <t>AVG GPU Max</t>
+  </si>
+  <si>
+    <t>AVG GPU Min</t>
+  </si>
+  <si>
+    <t>Microsoft Windows 10 Home</t>
+  </si>
+  <si>
+    <t>10.0.19043 N/A Build 1904</t>
+  </si>
+  <si>
+    <t>MACH-WX10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10.0.22000 N/A Build 22000</t>
+  </si>
+  <si>
+    <t>Dell Inc</t>
+  </si>
+  <si>
+    <t>Inspiron 7573</t>
+  </si>
+  <si>
+    <t>Intel64 Family 6 Model 142 Stepping 10 GenuineIntel ~1600 Mhz</t>
+  </si>
+  <si>
+    <t>Virtual Memory: In Use(MB)</t>
+  </si>
+  <si>
+    <t>Virtual Memory: Available(MB)</t>
+  </si>
+  <si>
+    <t>Virtual Memory: Max Size(MB)</t>
+  </si>
+  <si>
+    <t>Available Physical Memory(MB)</t>
+  </si>
+  <si>
+    <t>Total Physical Memory(MB)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -49,8 +174,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -66,6 +194,35 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{76C5A31A-8345-4363-A1E2-6267D8C996CE}" name="Table1" displayName="Table1" ref="A1:T4" totalsRowShown="0">
+  <autoFilter ref="A1:T4" xr:uid="{76C5A31A-8345-4363-A1E2-6267D8C996CE}"/>
+  <tableColumns count="20">
+    <tableColumn id="1" xr3:uid="{634BAC3E-E746-4877-BF16-A36312350131}" name="Processor Architecture"/>
+    <tableColumn id="2" xr3:uid="{4DECA27F-F89B-459C-8A49-63B74DB58933}" name="Total number of Processors"/>
+    <tableColumn id="3" xr3:uid="{520C155C-6AED-4227-AA9D-2D666F24F3C1}" name="Number of processors used"/>
+    <tableColumn id="4" xr3:uid="{C48B6B72-0B7D-47D6-AD30-D6CD982F21D1}" name="OS Name"/>
+    <tableColumn id="5" xr3:uid="{64317B63-BB15-458C-B1AA-A3A861D21568}" name="OS Version"/>
+    <tableColumn id="6" xr3:uid="{39E86D30-AF31-486C-AE02-49EF6677D803}" name="OS Configuration"/>
+    <tableColumn id="7" xr3:uid="{532CA46C-A4BD-447B-8012-2AE8E35AEC2E}" name="OS Build Type"/>
+    <tableColumn id="8" xr3:uid="{656CCB50-9106-4984-A4D0-4E3CE30CDD8C}" name="System Manufacturer"/>
+    <tableColumn id="9" xr3:uid="{A66D34B7-F81D-4D0C-A6E4-AB507EDF64DD}" name="System Model"/>
+    <tableColumn id="10" xr3:uid="{7CFE1E24-77E8-4D06-8655-D99D8358FC83}" name="System Type"/>
+    <tableColumn id="11" xr3:uid="{C9978A6B-8184-4A6A-8DEB-24F6AEB43AEC}" name="Processor(s)"/>
+    <tableColumn id="12" xr3:uid="{CD1ED29F-D6A8-482B-B195-BD67DB2B22B9}" name="Total Physical Memory(MB)"/>
+    <tableColumn id="13" xr3:uid="{3D11F3A1-DBF0-4802-9755-0521CF94BDB2}" name="Available Physical Memory(MB)"/>
+    <tableColumn id="14" xr3:uid="{6E702A12-245A-4740-A694-D686863FEC13}" name="Virtual Memory: Max Size(MB)"/>
+    <tableColumn id="15" xr3:uid="{F6D8DD3E-F934-4BAB-AB2D-FC1EE31574B8}" name="Virtual Memory: Available(MB)"/>
+    <tableColumn id="16" xr3:uid="{F85320F7-A777-4B0D-A77C-2BE1300E08EC}" name="Virtual Memory: In Use(MB)"/>
+    <tableColumn id="17" xr3:uid="{8A96B9B2-2FBE-410B-958A-745955332C91}" name="AVG CPU Max"/>
+    <tableColumn id="18" xr3:uid="{776D3726-716D-49C6-8EF8-BC177DB0CB59}" name="AVG CPU Min"/>
+    <tableColumn id="19" xr3:uid="{BA92BFFD-3B51-4802-B547-933FED7E455C}" name="AVG GPU Max"/>
+    <tableColumn id="20" xr3:uid="{57AF4FE1-6BC6-4503-B8E9-4A7D247E0616}" name="AVG GPU Min"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +487,291 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.44140625" customWidth="1"/>
+    <col min="20" max="20" width="15.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="3">
+        <v>16227</v>
+      </c>
+      <c r="M2" s="3">
+        <v>8565</v>
+      </c>
+      <c r="N2" s="3">
+        <v>27491</v>
+      </c>
+      <c r="O2" s="3">
+        <v>15777</v>
+      </c>
+      <c r="P2" s="3">
+        <v>11714</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="R2" s="1">
+        <v>6.25E-2</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0.40749999999999997</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0.28249999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="3">
+        <v>16227</v>
+      </c>
+      <c r="M3" s="3">
+        <v>1926</v>
+      </c>
+      <c r="N3" s="3">
+        <v>35986</v>
+      </c>
+      <c r="O3" s="3">
+        <v>4226</v>
+      </c>
+      <c r="P3" s="3">
+        <v>31760</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0.61299999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="3">
+        <v>8026</v>
+      </c>
+      <c r="M4" s="3">
+        <v>3098</v>
+      </c>
+      <c r="N4" s="3">
+        <v>13611</v>
+      </c>
+      <c r="O4" s="3">
+        <v>5795</v>
+      </c>
+      <c r="P4" s="3">
+        <v>7816</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/report_data.xlsx
+++ b/report_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Desktop\CS3813_Computer_Architecture\Project\GPU_Benchmark\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CS3813_Computer_Architecture\Project\GPU_Benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69ED0C7-3F80-4363-844F-B4F1F4726C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1122DD2C-0BD4-4D4D-9844-24D8DE16FA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15675" yWindow="1860" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>Processor Architecture</t>
   </si>
@@ -133,6 +133,24 @@
   </si>
   <si>
     <t>Total Physical Memory(MB)</t>
+  </si>
+  <si>
+    <t>x86</t>
+  </si>
+  <si>
+    <t>Microsoft Windows 10 Enterprise</t>
+  </si>
+  <si>
+    <t>10.0.19042 N/A Build 19042</t>
+  </si>
+  <si>
+    <t>Member Workstation</t>
+  </si>
+  <si>
+    <t>Precision Tower 3620</t>
+  </si>
+  <si>
+    <t>Intel64 Family 6 Model 158 Stepping 9 GenuineIntel ~4200 Mhz</t>
   </si>
 </sst>
 </file>
@@ -197,8 +215,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{76C5A31A-8345-4363-A1E2-6267D8C996CE}" name="Table1" displayName="Table1" ref="A1:T4" totalsRowShown="0">
-  <autoFilter ref="A1:T4" xr:uid="{76C5A31A-8345-4363-A1E2-6267D8C996CE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{76C5A31A-8345-4363-A1E2-6267D8C996CE}" name="Table1" displayName="Table1" ref="A1:T5" totalsRowShown="0">
+  <autoFilter ref="A1:T5" xr:uid="{76C5A31A-8345-4363-A1E2-6267D8C996CE}"/>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{634BAC3E-E746-4877-BF16-A36312350131}" name="Processor Architecture"/>
     <tableColumn id="2" xr3:uid="{4DECA27F-F89B-459C-8A49-63B74DB58933}" name="Total number of Processors"/>
@@ -488,37 +506,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="2" max="2" width="26.77734375" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.44140625" customWidth="1"/>
-    <col min="20" max="20" width="15.88671875" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.42578125" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -580,7 +598,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -642,7 +660,7 @@
         <v>0.28249999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -704,7 +722,7 @@
         <v>0.61299999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -764,6 +782,68 @@
       </c>
       <c r="T4" s="2">
         <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="3">
+        <v>16256</v>
+      </c>
+      <c r="M5" s="3">
+        <v>10596</v>
+      </c>
+      <c r="N5" s="3">
+        <v>18688</v>
+      </c>
+      <c r="O5" s="3">
+        <v>12661</v>
+      </c>
+      <c r="P5" s="3">
+        <v>6027</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="S5" s="2">
+        <v>1</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>
